--- a/data/Excel Workbooks/Calvin/SaudiArabiaDataWorkbook.xlsx
+++ b/data/Excel Workbooks/Calvin/SaudiArabiaDataWorkbook.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="192" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="194" uniqueCount="129">
   <si>
     <t>Notes</t>
   </si>
@@ -938,6 +938,12 @@
   </si>
   <si>
     <t>Calvin</t>
+  </si>
+  <si>
+    <t>iQp</t>
+  </si>
+  <si>
+    <t>iXp</t>
   </si>
 </sst>
 </file>
@@ -4066,11 +4072,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="-2109798504"/>
-        <c:axId val="-2109790248"/>
+        <c:axId val="2124819976"/>
+        <c:axId val="2124811896"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="-2109798504"/>
+        <c:axId val="2124819976"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4121,12 +4127,12 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109790248"/>
+        <c:crossAx val="2124811896"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="-2109790248"/>
+        <c:axId val="2124811896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -4172,7 +4178,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2109798504"/>
+        <c:crossAx val="2124819976"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="1.0"/>
@@ -6181,7 +6187,7 @@
   <dimension ref="A1:J22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J2" sqref="J2:J22"/>
+      <selection activeCell="F1" sqref="F1:G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="14" x14ac:dyDescent="0"/>
@@ -6208,13 +6214,11 @@
       <c r="E1" s="19" t="s">
         <v>123</v>
       </c>
-      <c r="F1" s="19" t="str">
-        <f>'Saudi Arabia Workbook'!K9</f>
-        <v>iQ</v>
-      </c>
-      <c r="G1" s="19" t="str">
-        <f>'Saudi Arabia Workbook'!L9</f>
-        <v>iX</v>
+      <c r="F1" s="79" t="s">
+        <v>127</v>
+      </c>
+      <c r="G1" s="79" t="s">
+        <v>128</v>
       </c>
       <c r="H1" s="79" t="s">
         <v>108</v>
@@ -11702,6 +11706,31 @@
     </row>
   </sheetData>
   <mergeCells count="41">
+    <mergeCell ref="Z29:Z30"/>
+    <mergeCell ref="AA29:AA30"/>
+    <mergeCell ref="AK29:AK30"/>
+    <mergeCell ref="AL29:AL30"/>
+    <mergeCell ref="AJ29:AJ30"/>
+    <mergeCell ref="AM29:AM30"/>
+    <mergeCell ref="AN29:AN30"/>
+    <mergeCell ref="AO29:AO30"/>
+    <mergeCell ref="AE29:AE30"/>
+    <mergeCell ref="AF29:AF30"/>
+    <mergeCell ref="AG29:AG30"/>
+    <mergeCell ref="AH29:AH30"/>
+    <mergeCell ref="AI29:AI30"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:B30"/>
+    <mergeCell ref="C29:C30"/>
+    <mergeCell ref="D29:D30"/>
+    <mergeCell ref="E29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="G29:G30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="I29:I30"/>
+    <mergeCell ref="L29:L30"/>
+    <mergeCell ref="J29:J30"/>
+    <mergeCell ref="K29:K30"/>
     <mergeCell ref="Y29:Y30"/>
     <mergeCell ref="AB29:AB30"/>
     <mergeCell ref="AC29:AC30"/>
@@ -11718,31 +11747,6 @@
     <mergeCell ref="W29:W30"/>
     <mergeCell ref="Q29:Q30"/>
     <mergeCell ref="R29:R30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="G29:G30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="I29:I30"/>
-    <mergeCell ref="L29:L30"/>
-    <mergeCell ref="J29:J30"/>
-    <mergeCell ref="K29:K30"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:B30"/>
-    <mergeCell ref="C29:C30"/>
-    <mergeCell ref="D29:D30"/>
-    <mergeCell ref="E29:E30"/>
-    <mergeCell ref="AM29:AM30"/>
-    <mergeCell ref="AN29:AN30"/>
-    <mergeCell ref="AO29:AO30"/>
-    <mergeCell ref="AE29:AE30"/>
-    <mergeCell ref="AF29:AF30"/>
-    <mergeCell ref="AG29:AG30"/>
-    <mergeCell ref="AH29:AH30"/>
-    <mergeCell ref="AI29:AI30"/>
-    <mergeCell ref="Z29:Z30"/>
-    <mergeCell ref="AA29:AA30"/>
-    <mergeCell ref="AK29:AK30"/>
-    <mergeCell ref="AL29:AL30"/>
-    <mergeCell ref="AJ29:AJ30"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <extLst>
